--- a/Laborator 10/Rezolvare hazarduri cod.xlsx
+++ b/Laborator 10/Rezolvare hazarduri cod.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Facultate\AC\Computer-Architecture-Labs\Laborator 10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B109656F-F7CF-4F36-9C87-C30121F6BD60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADFD4BD9-5393-4D86-8445-DBD593698E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{320FECAC-10B7-4A26-B0EF-CB695F8B5699}"/>
   </bookViews>
@@ -167,36 +167,18 @@
     <t>000000_00001_00010_00001_00000_100010</t>
   </si>
   <si>
-    <t>beq $1, $30, offset 30 (40)</t>
-  </si>
-  <si>
-    <t>beq $2, $30, offset 23 (37)</t>
-  </si>
-  <si>
     <t>bgtz $3, offset 6 (33)</t>
   </si>
   <si>
     <t>j addr 13</t>
   </si>
   <si>
-    <t>j addr 41</t>
-  </si>
-  <si>
-    <t>000100_00001_11110_0000000000011110</t>
-  </si>
-  <si>
-    <t>000100_00010_11110_0000000000010111</t>
-  </si>
-  <si>
     <t>000111_00011_00000_0000000000000110</t>
   </si>
   <si>
     <t>000010_00000000000000000000001101</t>
   </si>
   <si>
-    <t>000010_00000000000000000000101001</t>
-  </si>
-  <si>
     <t>_11111111111111111111111111111111</t>
   </si>
   <si>
@@ -224,12 +206,6 @@
     <t>20000008</t>
   </si>
   <si>
-    <t>103E001E</t>
-  </si>
-  <si>
-    <t>105E0017</t>
-  </si>
-  <si>
     <t>AC010000</t>
   </si>
   <si>
@@ -254,7 +230,31 @@
     <t>00220822</t>
   </si>
   <si>
-    <t>8000029</t>
+    <t>beq $2, $30, offset 22 (36)</t>
+  </si>
+  <si>
+    <t>000100_00010_11110_0000000000010110</t>
+  </si>
+  <si>
+    <t>105E0016</t>
+  </si>
+  <si>
+    <t>beq $1, $30, offset 29 (39)</t>
+  </si>
+  <si>
+    <t>000100_00001_11110_0000000000011101</t>
+  </si>
+  <si>
+    <t>103E001D</t>
+  </si>
+  <si>
+    <t>j addr 40</t>
+  </si>
+  <si>
+    <t>000010_00000000000000000000101000</t>
+  </si>
+  <si>
+    <t>8000028</t>
   </si>
 </sst>
 </file>
@@ -661,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{003C543E-2F30-43DC-95B2-A8A2DF5C2E65}">
   <dimension ref="A1:AW41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -720,7 +720,7 @@
         <v>30</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E1" t="s">
         <v>13</v>
@@ -749,7 +749,7 @@
         <v>31</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -778,7 +778,7 @@
         <v>32</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
@@ -807,7 +807,7 @@
         <v>33</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H4" t="s">
         <v>13</v>
@@ -836,7 +836,7 @@
         <v>34</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="I5" t="s">
         <v>13</v>
@@ -862,10 +862,10 @@
         <v>26</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -881,10 +881,10 @@
         <v>26</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -903,7 +903,7 @@
         <v>35</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="L8" t="s">
         <v>13</v>
@@ -932,7 +932,7 @@
         <v>36</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="M9" t="s">
         <v>13</v>
@@ -951,17 +951,17 @@
       </c>
     </row>
     <row r="10" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="4">
+      <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="N10" s="4" t="s">
         <v>13</v>
@@ -987,10 +987,10 @@
         <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
@@ -1006,10 +1006,10 @@
         <v>26</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
@@ -1025,10 +1025,10 @@
         <v>26</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
@@ -1037,17 +1037,17 @@
       <c r="U13" s="2"/>
     </row>
     <row r="14" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="4">
+      <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="R14" s="4" t="s">
         <v>13</v>
@@ -1073,10 +1073,10 @@
         <v>26</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
@@ -1092,10 +1092,10 @@
         <v>26</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
@@ -1111,10 +1111,10 @@
         <v>26</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
@@ -1133,7 +1133,7 @@
         <v>37</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="V18" t="s">
         <v>13</v>
@@ -1162,7 +1162,7 @@
         <v>38</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="W19" t="s">
         <v>13</v>
@@ -1188,10 +1188,10 @@
         <v>26</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
@@ -1207,10 +1207,10 @@
         <v>26</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
@@ -1229,7 +1229,7 @@
         <v>39</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="Z22" t="s">
         <v>13</v>
@@ -1258,7 +1258,7 @@
         <v>38</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="AA23" t="s">
         <v>13</v>
@@ -1287,7 +1287,7 @@
         <v>40</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="AB24" t="s">
         <v>13</v>
@@ -1313,10 +1313,10 @@
         <v>26</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="AC25" s="2"/>
       <c r="AD25" s="2"/>
@@ -1332,10 +1332,10 @@
         <v>26</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="AD26" s="2"/>
       <c r="AE26" s="2"/>
@@ -1344,17 +1344,17 @@
       <c r="AH26" s="2"/>
     </row>
     <row r="27" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="4">
+      <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>50</v>
-      </c>
       <c r="D27" s="7" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="AE27" s="4" t="s">
         <v>13</v>
@@ -1380,10 +1380,10 @@
         <v>26</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="AF28" s="2"/>
       <c r="AG28" s="2"/>
@@ -1399,10 +1399,10 @@
         <v>26</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="AG29" s="2"/>
       <c r="AH29" s="2"/>
@@ -1418,10 +1418,10 @@
         <v>26</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="AG30" s="3"/>
       <c r="AH30" s="2"/>
@@ -1441,7 +1441,7 @@
         <v>41</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="AI31" t="s">
         <v>13</v>
@@ -1460,17 +1460,17 @@
       </c>
     </row>
     <row r="32" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="4">
+      <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>51</v>
-      </c>
       <c r="D32" s="7" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="AJ32" s="4" t="s">
         <v>13</v>
@@ -1496,10 +1496,10 @@
         <v>26</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="AK33" s="2"/>
       <c r="AL33" s="2"/>
@@ -1518,7 +1518,7 @@
         <v>42</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="AL34" t="s">
         <v>13</v>
@@ -1537,17 +1537,17 @@
       </c>
     </row>
     <row r="35" spans="1:49" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="4">
-        <v>35</v>
+      <c r="A35">
+        <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>51</v>
-      </c>
       <c r="D35" s="7" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="AM35" s="4" t="s">
         <v>13</v>
@@ -1567,16 +1567,16 @@
     </row>
     <row r="36" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="AN36" s="2"/>
       <c r="AO36" s="2"/>
@@ -1586,7 +1586,7 @@
     </row>
     <row r="37" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>7</v>
@@ -1595,7 +1595,7 @@
         <v>37</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="AO37" t="s">
         <v>13</v>
@@ -1614,14 +1614,14 @@
       </c>
     </row>
     <row r="38" spans="1:49" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="4">
-        <v>38</v>
+      <c r="A38">
+        <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>72</v>
@@ -1644,16 +1644,16 @@
     </row>
     <row r="39" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="AQ39" s="2"/>
       <c r="AR39" s="2"/>
@@ -1663,7 +1663,7 @@
     </row>
     <row r="40" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>9</v>
@@ -1672,7 +1672,7 @@
         <v>39</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="AR40" t="s">
         <v>13</v>
@@ -1692,16 +1692,16 @@
     </row>
     <row r="41" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="AS41" s="2"/>
       <c r="AT41" s="2"/>
